--- a/Test Case/EasyTestCase.xlsx
+++ b/Test Case/EasyTestCase.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B987E2-6775-45EC-85E6-7DC019F83E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBACBE-BAC5-4542-ABA2-0CB205DC4292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SrNo</t>
   </si>
@@ -42,26 +37,44 @@
     <t>Outcome</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>python</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>Write a program to reverse a string using recursion?</t>
+    <t>What is the output when you add "1" and 2 in python?</t>
+  </si>
+  <si>
+    <t>Write a code in python to cast a string to a float values and also take care of any exceptions?</t>
+  </si>
+  <si>
+    <t>Write a python code where you input string of sentences and output is a list of words from the sentence.</t>
+  </si>
+  <si>
+    <t>Write a python code to check if string start with "W" and end with "?". Also take care of spaces start and end of the sentence.</t>
+  </si>
+  <si>
+    <t>Write a python code to check  "Abhijit" occurs in the input string. Make it case insensitive.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,7 +85,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -84,17 +104,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,20 +164,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -184,12 +207,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -228,195 +251,243 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Case/EasyTestCase.xlsx
+++ b/Test Case/EasyTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBACBE-BAC5-4542-ABA2-0CB205DC4292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078500A3-CD16-4A7A-B891-9846E62F8620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>SrNo</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>Write a python code to check  "Abhijit" occurs in the input string. Make it case insensitive.</t>
+  </si>
+  <si>
+    <t>Write a python code to add the elements of the two lists alternately to create a new list.</t>
+  </si>
+  <si>
+    <t>Write a python code to generate fibonacci series with n number of elements</t>
+  </si>
+  <si>
+    <t>Write a python code to remove the duplicate elements in a list.</t>
+  </si>
+  <si>
+    <t>Write a python code to create a list of specific data type.</t>
+  </si>
+  <si>
+    <t>Write a python code to check if the element of the list is present in the dictionary keys, if yes the append all those values in a string.</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,23 +483,126 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/EasyTestCase.xlsx
+++ b/Test Case/EasyTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078500A3-CD16-4A7A-B891-9846E62F8620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6686DDD3-BBC1-40B6-995F-8811EF7C26EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>SrNo</t>
   </si>
@@ -67,10 +67,43 @@
     <t>Write a python code to remove the duplicate elements in a list.</t>
   </si>
   <si>
-    <t>Write a python code to create a list of specific data type.</t>
-  </si>
-  <si>
     <t>Write a python code to check if the element of the list is present in the dictionary keys, if yes the append all those values in a string.</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Write a python code to format a string in the dd-mm-yyyy date fromat.</t>
+  </si>
+  <si>
+    <t>Create a table named customer in SQL server with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key.</t>
+  </si>
+  <si>
+    <t>Write a SQL Server code to display all unique employee_id who has salary greater that 70k using the employee table.</t>
+  </si>
+  <si>
+    <t>Display names of first 23 distinct employee_name from the table employee in SQL Server.</t>
+  </si>
+  <si>
+    <t>Give me names of the employee whose emp_id's second and third letter is 'PE'  from the table employee in SQL Server .</t>
+  </si>
+  <si>
+    <t>Find the average,minimum, maximum and median salary from the employee table in SQL Server.</t>
+  </si>
+  <si>
+    <t>What will be the output of '1'+2 in SQL Server.</t>
+  </si>
+  <si>
+    <t>Does unique constraint allows null values?</t>
+  </si>
+  <si>
+    <t>Get me all the customer_names who has ordered products from us with product_price greater than 1000.(customer and orders table is given and SQL Server is the DB). Give me two different methods to implement this.</t>
+  </si>
+  <si>
+    <t>Give me all the product_name whose category is cosmetic, drink and clothes (use the in operator) and the product_date should be within 6 months from now.(table name is product and SQL server is DB)</t>
+  </si>
+  <si>
+    <t>Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and SQL Server is the DB)</t>
   </si>
 </sst>
 </file>
@@ -432,10 +465,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -602,7 +635,147 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/EasyTestCase.xlsx
+++ b/Test Case/EasyTestCase.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6686DDD3-BBC1-40B6-995F-8811EF7C26EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F4F19-1701-495C-A20B-A5ABE21CDACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>SrNo</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Outcome</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
@@ -49,33 +46,15 @@
     <t>Write a code in python to cast a string to a float values and also take care of any exceptions?</t>
   </si>
   <si>
-    <t>Write a python code where you input string of sentences and output is a list of words from the sentence.</t>
-  </si>
-  <si>
     <t>Write a python code to check if string start with "W" and end with "?". Also take care of spaces start and end of the sentence.</t>
   </si>
   <si>
-    <t>Write a python code to check  "Abhijit" occurs in the input string. Make it case insensitive.</t>
-  </si>
-  <si>
-    <t>Write a python code to add the elements of the two lists alternately to create a new list.</t>
-  </si>
-  <si>
     <t>Write a python code to generate fibonacci series with n number of elements</t>
   </si>
   <si>
-    <t>Write a python code to remove the duplicate elements in a list.</t>
-  </si>
-  <si>
-    <t>Write a python code to check if the element of the list is present in the dictionary keys, if yes the append all those values in a string.</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
-    <t>Write a python code to format a string in the dd-mm-yyyy date fromat.</t>
-  </si>
-  <si>
     <t>Create a table named customer in SQL server with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key.</t>
   </si>
   <si>
@@ -104,6 +83,51 @@
   </si>
   <si>
     <t>Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and SQL Server is the DB)</t>
+  </si>
+  <si>
+    <t>GPT3.5</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>BingAI</t>
+  </si>
+  <si>
+    <t>You.com</t>
+  </si>
+  <si>
+    <t>Write a python code where you input string of sentences and output is a list of unique words from the sentence, be carefull abou the case.</t>
+  </si>
+  <si>
+    <t>Write a python code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive.</t>
+  </si>
+  <si>
+    <t>Write a python code to find the prime factors of a number.</t>
+  </si>
+  <si>
+    <t>Write a python code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>If the size of the list is unequal the code fails for 0.</t>
+  </si>
+  <si>
+    <t>when I enter 0 it runs infinetly for bings code</t>
+  </si>
+  <si>
+    <t>Write a python code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format.</t>
+  </si>
+  <si>
+    <t>When I tried entering the date in the standard(yyyymmdd) format most of the code didn't work.</t>
+  </si>
+  <si>
+    <t>Write a python code to check if the element of the list is present in the dictionary keys, if yes then append all those values in a single string.</t>
+  </si>
+  <si>
+    <t>you.com assumes that the value of dict is list of string.</t>
   </si>
 </sst>
 </file>
@@ -152,13 +176,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,321 +488,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE7738-0CBB-4F4F-98BF-F92D128F5105}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/EasyTestCase.xlsx
+++ b/Test Case/EasyTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F4F19-1701-495C-A20B-A5ABE21CDACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B516767-6772-48D0-91EC-1EFBB06F1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>SrNo</t>
   </si>
@@ -55,36 +55,6 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>Create a table named customer in SQL server with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key.</t>
-  </si>
-  <si>
-    <t>Write a SQL Server code to display all unique employee_id who has salary greater that 70k using the employee table.</t>
-  </si>
-  <si>
-    <t>Display names of first 23 distinct employee_name from the table employee in SQL Server.</t>
-  </si>
-  <si>
-    <t>Give me names of the employee whose emp_id's second and third letter is 'PE'  from the table employee in SQL Server .</t>
-  </si>
-  <si>
-    <t>Find the average,minimum, maximum and median salary from the employee table in SQL Server.</t>
-  </si>
-  <si>
-    <t>What will be the output of '1'+2 in SQL Server.</t>
-  </si>
-  <si>
-    <t>Does unique constraint allows null values?</t>
-  </si>
-  <si>
-    <t>Get me all the customer_names who has ordered products from us with product_price greater than 1000.(customer and orders table is given and SQL Server is the DB). Give me two different methods to implement this.</t>
-  </si>
-  <si>
-    <t>Give me all the product_name whose category is cosmetic, drink and clothes (use the in operator) and the product_date should be within 6 months from now.(table name is product and SQL server is DB)</t>
-  </si>
-  <si>
-    <t>Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and SQL Server is the DB)</t>
-  </si>
-  <si>
     <t>GPT3.5</t>
   </si>
   <si>
@@ -128,6 +98,51 @@
   </si>
   <si>
     <t>you.com assumes that the value of dict is list of string.</t>
+  </si>
+  <si>
+    <t>Create a table named customer in Postgres SQL with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key. add a check constraint on phone_number, it should start with 91 and should be of 12 digit.</t>
+  </si>
+  <si>
+    <t>Display names of first 23 distinct employee_name from the table employee in Postgres SQL.</t>
+  </si>
+  <si>
+    <t>Find the average,minimum, maximum and median salary from the employee table in Postgres SQL.</t>
+  </si>
+  <si>
+    <t>What will be the output of '1'+2 in Postgres SQL.</t>
+  </si>
+  <si>
+    <t>Give me all the product_name whose category is cosmetic, drink and clothes (use the in operator) and the product_date should be within 6 months from now.(table name is product and Postgres SQL is DB)</t>
+  </si>
+  <si>
+    <t>Get me all the customer_names who has ordered products from us with product_price greater than 1000.(customer and orders table is given and Postgres SQL is the DB). Give me two different methods to implement this.</t>
+  </si>
+  <si>
+    <t>Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and Postgres SQL is the DB)</t>
+  </si>
+  <si>
+    <t>Write a Postgres SQL code to display all unique employee_id who has salary greater that 70k using the employee table.</t>
+  </si>
+  <si>
+    <t>Bard here made contradicting constraints, phone number with 10 length and then in the check constraint of length 12.</t>
+  </si>
+  <si>
+    <t>Give me names of the employee whose emp_id's second and third letter is 'PE' and char 'X' in any place of the emp_id from the table employee in Postgres SQL .</t>
+  </si>
+  <si>
+    <t>Bard is not able to formulate the like keywords.</t>
+  </si>
+  <si>
+    <t>Does unique constraint allows null values in Postgres SQL and if yes then how many ?</t>
+  </si>
+  <si>
+    <t>you.com is giving wrong info here, actually the opposite answers.</t>
+  </si>
+  <si>
+    <t>The failed ones gave the same answer but were wrong.</t>
+  </si>
+  <si>
+    <t>Bard is not able to understand the questions.</t>
   </si>
 </sst>
 </file>
@@ -176,12 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,15 +503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE7738-0CBB-4F4F-98BF-F92D128F5105}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -516,19 +528,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -594,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -646,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -672,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -686,8 +698,8 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -727,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -741,8 +753,8 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -756,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -770,8 +782,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>33</v>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -785,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -799,8 +811,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>35</v>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -814,10 +826,22 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -828,7 +852,22 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -842,7 +881,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -856,7 +910,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -870,10 +936,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -884,10 +962,22 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -898,10 +988,25 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -912,10 +1017,25 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -926,10 +1046,22 @@
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -940,7 +1072,22 @@
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/EasyTestCase.xlsx
+++ b/Test Case/EasyTestCase.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B516767-6772-48D0-91EC-1EFBB06F1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9F470-D500-45A5-9BBD-06189A092AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>SrNo</t>
   </si>
@@ -67,9 +67,6 @@
     <t>You.com</t>
   </si>
   <si>
-    <t>Write a python code where you input string of sentences and output is a list of unique words from the sentence, be carefull abou the case.</t>
-  </si>
-  <si>
     <t>Write a python code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive.</t>
   </si>
   <si>
@@ -143,13 +140,101 @@
   </si>
   <si>
     <t>Bard is not able to understand the questions.</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Write a python code where you input string of sentences and output is a list of unique words from the sentence, be carefull about the case.</t>
+  </si>
+  <si>
+    <t>Write the below python code in Go lang:  
+def func(number):
+  f = []
+  for i in range(2, number + 1):
+    while number % i == 0:
+      f.append(i)
+      number = number // i
+  return f</t>
+  </si>
+  <si>
+    <t>Wrtie the below python code in R language:  
+def func(s):
+  w = s.lower().split(" ")
+  b = set()
+  for w in w:
+    if w not in b:
+      b.add(w)
+  return list(b)</t>
+  </si>
+  <si>
+    <t>Bing and You are just trying to translate the code word by word and failed to understand the code, giving code that couldn't compile.</t>
+  </si>
+  <si>
+    <t>Convert this python code to java:
+import re
+def c_s(s):
+  p = re.compile(r"(?i)Abhijit|tijibha")
+  c = 0
+  for match in p.finditer(s):
+    c += 1
+  return c</t>
+  </si>
+  <si>
+    <t>Convert this python code to java:
+import dateutil.parser
+def func(s):
+d = dateutil.parser.parse(s)
+fd = d.strftime("%d-%m-%Y")
+   return fd</t>
+  </si>
+  <si>
+    <t>Convert this Postgres SQL code to python pandas:
+SELECT customer_name
+FROM customer c
+WHERE EXISTS (
+    SELECT 1
+    FROM orders o
+    INNER JOIN products p ON o.product_id = p.product_id
+    WHERE c.customer_id = o.customer_id AND p.product_price &gt; 1000
+);</t>
+  </si>
+  <si>
+    <t>Bard missed one join attribute</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>What is the output when you add "1" and 2 in java?</t>
+  </si>
+  <si>
+    <t>Write a java code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most.</t>
+  </si>
+  <si>
+    <t>Bard and Bing failed, giving compilation error as output</t>
+  </si>
+  <si>
+    <t>When the list are uneaqual it fails</t>
+  </si>
+  <si>
+    <t>Write a java code to find the prime factors of a number.</t>
+  </si>
+  <si>
+    <t>GPT3.5 n you Failing when number is 0</t>
+  </si>
+  <si>
+    <t>Write a java code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive.</t>
+  </si>
+  <si>
+    <t>Write a java code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +247,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -199,6 +292,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,16 +601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE7738-0CBB-4F4F-98BF-F92D128F5105}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="68" customWidth="1"/>
+    <col min="4" max="4" width="68" style="3" customWidth="1"/>
     <col min="9" max="9" width="43.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -606,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -684,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -699,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -739,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -754,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -768,22 +868,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -797,22 +897,22 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -826,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -852,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -867,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -881,22 +981,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -910,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -936,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -962,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -988,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1003,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1017,22 +1117,22 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1046,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1072,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1087,7 +1187,270 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="5">
+        <f>SUM(E2:E31)</f>
+        <v>23</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:H32" si="0">SUM(F2:F31)</f>
+        <v>19</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/EasyTestCase.xlsx
+++ b/Test Case/EasyTestCase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb91a9f572235a6e/Desktop/ML4NLU Documentation/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9F470-D500-45A5-9BBD-06189A092AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{3CF9F470-D500-45A5-9BBD-06189A092AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C3A868-A889-4017-B53B-B80D355E5710}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>SrNo</t>
   </si>
@@ -40,18 +40,6 @@
     <t>python</t>
   </si>
   <si>
-    <t>What is the output when you add "1" and 2 in python?</t>
-  </si>
-  <si>
-    <t>Write a code in python to cast a string to a float values and also take care of any exceptions?</t>
-  </si>
-  <si>
-    <t>Write a python code to check if string start with "W" and end with "?". Also take care of spaces start and end of the sentence.</t>
-  </si>
-  <si>
-    <t>Write a python code to generate fibonacci series with n number of elements</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -67,15 +55,6 @@
     <t>You.com</t>
   </si>
   <si>
-    <t>Write a python code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive.</t>
-  </si>
-  <si>
-    <t>Write a python code to find the prime factors of a number.</t>
-  </si>
-  <si>
-    <t>Write a python code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -85,54 +64,18 @@
     <t>when I enter 0 it runs infinetly for bings code</t>
   </si>
   <si>
-    <t>Write a python code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format.</t>
-  </si>
-  <si>
     <t>When I tried entering the date in the standard(yyyymmdd) format most of the code didn't work.</t>
   </si>
   <si>
-    <t>Write a python code to check if the element of the list is present in the dictionary keys, if yes then append all those values in a single string.</t>
-  </si>
-  <si>
     <t>you.com assumes that the value of dict is list of string.</t>
   </si>
   <si>
-    <t>Create a table named customer in Postgres SQL with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key. add a check constraint on phone_number, it should start with 91 and should be of 12 digit.</t>
-  </si>
-  <si>
-    <t>Display names of first 23 distinct employee_name from the table employee in Postgres SQL.</t>
-  </si>
-  <si>
-    <t>Find the average,minimum, maximum and median salary from the employee table in Postgres SQL.</t>
-  </si>
-  <si>
-    <t>What will be the output of '1'+2 in Postgres SQL.</t>
-  </si>
-  <si>
-    <t>Give me all the product_name whose category is cosmetic, drink and clothes (use the in operator) and the product_date should be within 6 months from now.(table name is product and Postgres SQL is DB)</t>
-  </si>
-  <si>
-    <t>Get me all the customer_names who has ordered products from us with product_price greater than 1000.(customer and orders table is given and Postgres SQL is the DB). Give me two different methods to implement this.</t>
-  </si>
-  <si>
-    <t>Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and Postgres SQL is the DB)</t>
-  </si>
-  <si>
-    <t>Write a Postgres SQL code to display all unique employee_id who has salary greater that 70k using the employee table.</t>
-  </si>
-  <si>
     <t>Bard here made contradicting constraints, phone number with 10 length and then in the check constraint of length 12.</t>
   </si>
   <si>
-    <t>Give me names of the employee whose emp_id's second and third letter is 'PE' and char 'X' in any place of the emp_id from the table employee in Postgres SQL .</t>
-  </si>
-  <si>
     <t>Bard is not able to formulate the like keywords.</t>
   </si>
   <si>
-    <t>Does unique constraint allows null values in Postgres SQL and if yes then how many ?</t>
-  </si>
-  <si>
     <t>you.com is giving wrong info here, actually the opposite answers.</t>
   </si>
   <si>
@@ -143,19 +86,6 @@
   </si>
   <si>
     <t>Migration</t>
-  </si>
-  <si>
-    <t>Write a python code where you input string of sentences and output is a list of unique words from the sentence, be carefull about the case.</t>
-  </si>
-  <si>
-    <t>Write the below python code in Go lang:  
-def func(number):
-  f = []
-  for i in range(2, number + 1):
-    while number % i == 0:
-      f.append(i)
-      number = number // i
-  return f</t>
   </si>
   <si>
     <t>Wrtie the below python code in R language:  
@@ -206,28 +136,113 @@
     <t>java</t>
   </si>
   <si>
-    <t>What is the output when you add "1" and 2 in java?</t>
-  </si>
-  <si>
-    <t>Write a java code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most.</t>
-  </si>
-  <si>
     <t>Bard and Bing failed, giving compilation error as output</t>
   </si>
   <si>
     <t>When the list are uneaqual it fails</t>
   </si>
   <si>
-    <t>Write a java code to find the prime factors of a number.</t>
-  </si>
-  <si>
     <t>GPT3.5 n you Failing when number is 0</t>
   </si>
   <si>
-    <t>Write a java code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive.</t>
-  </si>
-  <si>
     <t>Write a java code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write the below python code in Go lang:  
+def func(number):
+  f = []
+  for i in range(2, number + 1):
+    while number % i == 0:
+      f.append(i)
+      number = number // i
+  return f </t>
+  </si>
+  <si>
+    <t>Question Reference</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the output when you add "1" and 2 in python? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a code in python to cast a string to a float values and also take care of any exceptions? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code where you input string of sentences and output is a list of unique words from the sentence, be carefull about the case. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to check if string start with "W" and end with "?". Also take care of spaces start and end of the sentence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to generate fibonacci series with n number of elements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to find the prime factors of a number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to check if the element of the list is present in the dictionary keys, if yes then append all those values in a single string. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Postgres SQL code to display all unique employee_id who has salary greater that 70k using the employee table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a table named customer in Postgres SQL with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key. add a check constraint on phone_number, it should start with 91 and should be of 12 digit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me names of the employee whose emp_id's second and third letter is 'PE' and char 'X' in any place of the emp_id from the table employee in Postgres SQL . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display names of first 23 distinct employee_name from the table employee in Postgres SQL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the average,minimum, maximum and median salary from the employee table in Postgres SQL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will be the output of '1'+2 in Postgres SQL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me all the product_name whose category is cosmetic, drink and clothes (use the in operator) and the product_date should be within 6 months from now.(table name is product and Postgres SQL is DB). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does unique constraint allows null values in Postgres SQL and if yes then how many ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get me all the customer_names who has ordered products from us with product_price greater than 1000.(customer and orders table is given and Postgres SQL is the DB). Give me two different methods to implement this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and Postgres SQL is the DB). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the output when you add "1" and 2 in java? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to find the prime factors of a number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive. </t>
   </si>
 </sst>
 </file>
@@ -257,12 +272,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -284,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -295,10 +316,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,6 +341,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE7738-0CBB-4F4F-98BF-F92D128F5105}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,38 +647,42 @@
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="68" style="3" customWidth="1"/>
     <col min="9" max="9" width="43.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -654,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -668,8 +707,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -680,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -694,8 +736,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -720,8 +765,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -732,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -746,8 +794,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -758,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -772,8 +823,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -784,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,10 +853,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -813,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -827,8 +884,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -839,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -854,10 +914,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -868,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -883,10 +946,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -897,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -912,10 +978,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -923,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -940,8 +1009,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -949,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -967,10 +1039,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -978,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -996,10 +1071,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1007,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1024,8 +1102,11 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1033,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1050,8 +1131,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1059,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1076,8 +1160,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1085,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1103,10 +1190,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1114,28 +1204,31 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1143,10 +1236,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1160,8 +1253,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1169,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1187,18 +1283,21 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1212,16 +1311,19 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="J22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1236,18 +1338,21 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1261,16 +1366,19 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1284,16 +1392,19 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="J25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1308,18 +1419,21 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>49</v>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1334,18 +1448,21 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>49</v>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1360,18 +1477,21 @@
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>49</v>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1386,18 +1506,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1411,16 +1534,19 @@
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J30" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>49</v>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1434,21 +1560,24 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="5">
+      <c r="J31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
         <f>SUM(E2:E31)</f>
         <v>23</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" ref="F32:H32" si="0">SUM(F2:F31)</f>
         <v>19</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
